--- a/config/forms/app/case_investigation.xlsx
+++ b/config/forms/app/case_investigation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-zwei\config\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0B69BE-1A8B-406D-9F5A-76CE8DD87E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EC98E5-2DD4-436A-AA73-5A0FF1319B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9173" uniqueCount="2613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9176" uniqueCount="2615">
   <si>
     <t>form_title</t>
   </si>
@@ -7849,27 +7849,9 @@
     <t>../inputs/contact/parent/name</t>
   </si>
   <si>
-    <t>case_number</t>
-  </si>
-  <si>
-    <t>case_name</t>
-  </si>
-  <si>
     <t>patient_uuid</t>
   </si>
   <si>
-    <t>case_number_title</t>
-  </si>
-  <si>
-    <t>&lt;h4 style="padding: 5px 0;"&gt;Case Number: ${case_number} &lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t>case_title</t>
-  </si>
-  <si>
-    <t>&lt;h4 style="padding: 5px 0;"&gt;${ci_outbreak_name} &gt; ${case_name} &lt;/h4&gt;</t>
-  </si>
-  <si>
     <t>Surname, First Name, Last Name</t>
   </si>
   <si>
@@ -7880,6 +7862,30 @@
   </si>
   <si>
     <t>Village, Town or City</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>../inputs/contact/patient_id</t>
+  </si>
+  <si>
+    <t>case_id_title</t>
+  </si>
+  <si>
+    <t>case_name_title</t>
+  </si>
+  <si>
+    <t>ci_case_id</t>
+  </si>
+  <si>
+    <t>ci_case_name</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="padding: 5px 0;"&gt;Case ID: ${ci_case_id} &lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="padding: 5px 0;"&gt;${ci_outbreak_name} &gt; ${ci_case_name} &lt;/h4&gt;</t>
   </si>
 </sst>
 </file>
@@ -8449,12 +8455,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DDD78E-1CAD-40FF-A32D-5B3923D727A1}">
-  <dimension ref="A1:P275"/>
+  <dimension ref="A1:P276"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C212" sqref="C212"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8755,64 +8761,64 @@
       <c r="P15" s="5"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="27" t="s">
+      <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B18" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C18" s="27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>33</v>
@@ -8836,7 +8842,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>581</v>
+        <v>9</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>33</v>
@@ -8856,64 +8862,64 @@
       <c r="P20" s="5"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="27" t="s">
+      <c r="A21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C23" s="27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>33</v>
@@ -8932,13 +8938,29 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>41</v>
-      </c>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
@@ -8953,7 +8975,7 @@
         <v>42</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.35">
@@ -8961,34 +8983,16 @@
         <v>42</v>
       </c>
       <c r="B28" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>2604</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
@@ -9016,14 +9020,14 @@
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>2603</v>
-      </c>
-      <c r="C32" s="8" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="7"/>
@@ -9031,7 +9035,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7" t="s">
-        <v>45</v>
+        <v>2608</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -9047,7 +9051,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>2595</v>
+        <v>2612</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>33</v>
@@ -9057,7 +9061,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7" t="s">
-        <v>2594</v>
+        <v>45</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -9073,7 +9077,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>2600</v>
+        <v>2595</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>33</v>
@@ -9083,7 +9087,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7" t="s">
-        <v>2601</v>
+        <v>2594</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -9094,29 +9098,44 @@
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
     </row>
-    <row r="36" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>2601</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+    </row>
+    <row r="37" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B37" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I37" s="9" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>2605</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>2608</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.35">
@@ -9124,10 +9143,10 @@
         <v>83</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>2607</v>
+        <v>2610</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>2606</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.35">
@@ -9135,140 +9154,137 @@
         <v>83</v>
       </c>
       <c r="B39" s="24" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="24" t="s">
         <v>2471</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>2610</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="C40" s="24" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>51</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>2533</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>579</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
+    <row r="44" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B44" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G44" s="9" t="s">
         <v>2596</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I44" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>87</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>86</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>2593</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" t="s">
         <v>13</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I45" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="9" t="s">
+    <row r="46" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B46" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="9" t="s">
+    <row r="48" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G48" s="9" t="s">
         <v>2597</v>
       </c>
-      <c r="I47" s="9" t="s">
+      <c r="I48" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>90</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>89</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>2593</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>13</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I49" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="9" t="s">
+    <row r="50" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B50" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="9" t="s">
+    <row r="52" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B52" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C52" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G52" s="9" t="s">
         <v>2598</v>
       </c>
-      <c r="I51" s="9" t="s">
+      <c r="I52" s="9" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2534</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2535</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -9276,100 +9292,97 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="C53" t="s">
-        <v>2611</v>
+        <v>2535</v>
       </c>
       <c r="E53" t="s">
         <v>13</v>
       </c>
-      <c r="O53" t="s">
-        <v>2612</v>
-      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>2536</v>
       </c>
       <c r="C54" t="s">
-        <v>2593</v>
+        <v>2605</v>
       </c>
       <c r="E54" t="s">
         <v>13</v>
       </c>
+      <c r="O54" t="s">
+        <v>2606</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
-        <v>261</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>262</v>
+        <v>2593</v>
       </c>
       <c r="E55" t="s">
         <v>13</v>
       </c>
-      <c r="G55" t="s">
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>261</v>
+      </c>
+      <c r="C56" t="s">
+        <v>262</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="9" t="s">
+    <row r="57" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B57" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="9" t="s">
+    <row r="59" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B59" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G59" s="9" t="s">
         <v>2599</v>
       </c>
-      <c r="I58" s="9" t="s">
+      <c r="I59" s="9" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>269</v>
-      </c>
-      <c r="B59" t="s">
-        <v>272</v>
-      </c>
-      <c r="C59" t="s">
-        <v>266</v>
-      </c>
-      <c r="E59" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="B60" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C60" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E60" t="s">
         <v>13</v>
@@ -9380,13 +9393,13 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>576</v>
+        <v>244</v>
       </c>
       <c r="B61" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C61" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E61" t="s">
         <v>13</v>
@@ -9397,13 +9410,13 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>244</v>
+        <v>576</v>
       </c>
       <c r="B62" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>274</v>
       </c>
       <c r="E62" t="s">
         <v>13</v>
@@ -9417,10 +9430,10 @@
         <v>244</v>
       </c>
       <c r="B63" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C63" t="s">
-        <v>277</v>
+        <v>100</v>
       </c>
       <c r="E63" t="s">
         <v>13</v>
@@ -9434,10 +9447,10 @@
         <v>244</v>
       </c>
       <c r="B64" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E64" t="s">
         <v>13</v>
@@ -9448,113 +9461,113 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="B65" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C65" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E65" t="s">
         <v>13</v>
       </c>
-      <c r="G65" t="s">
-        <v>282</v>
-      </c>
       <c r="I65" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="B66" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C66" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E66" t="s">
         <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I66" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>244</v>
-      </c>
-      <c r="B68" t="s">
-        <v>296</v>
-      </c>
-      <c r="C68" t="s">
-        <v>297</v>
-      </c>
-      <c r="E68" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" t="s">
+        <v>283</v>
+      </c>
+      <c r="C67" t="s">
+        <v>302</v>
+      </c>
+      <c r="E67" t="s">
         <v>13</v>
       </c>
-      <c r="I68" t="s">
+      <c r="G67" t="s">
+        <v>284</v>
+      </c>
+      <c r="I67" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="B69" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C69" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E69" t="s">
         <v>13</v>
       </c>
-      <c r="G69" t="s">
-        <v>303</v>
-      </c>
       <c r="I69" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="B70" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C70" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E70" t="s">
         <v>13</v>
       </c>
       <c r="G70" t="s">
+        <v>303</v>
+      </c>
+      <c r="I70" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" t="s">
+        <v>304</v>
+      </c>
+      <c r="C71" t="s">
+        <v>305</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>244</v>
-      </c>
-      <c r="B72" t="s">
-        <v>321</v>
-      </c>
-      <c r="C72" t="s">
-        <v>320</v>
-      </c>
-      <c r="E72" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -9562,10 +9575,10 @@
         <v>244</v>
       </c>
       <c r="B73" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C73" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
@@ -9579,10 +9592,10 @@
         <v>244</v>
       </c>
       <c r="B74" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C74" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E74" t="s">
         <v>13</v>
@@ -9593,13 +9606,19 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>324</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -9607,128 +9626,125 @@
         <v>61</v>
       </c>
       <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77" t="s">
         <v>327</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>326</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E77" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="9" t="s">
+    <row r="78" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B78" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>61</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>77</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C80" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="16" t="s">
+    <row r="82" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B82" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="C82" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="G82" s="16" t="s">
         <v>2599</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>339</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="17" t="s">
-        <v>2599</v>
-      </c>
-      <c r="I82" s="17" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I83" s="17" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B84" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C84" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G83" s="17" t="s">
+      <c r="G84" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="I83" s="17" t="s">
+      <c r="I84" s="17" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>564</v>
-      </c>
-      <c r="B84" t="s">
-        <v>565</v>
-      </c>
-      <c r="C84" t="s">
-        <v>336</v>
-      </c>
-      <c r="E84" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>244</v>
+        <v>564</v>
       </c>
       <c r="B85" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C85" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E85" t="s">
         <v>13</v>
       </c>
-      <c r="I85" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>564</v>
+        <v>244</v>
       </c>
       <c r="B86" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C86" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E86" t="s">
         <v>13</v>
+      </c>
+      <c r="I86" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -9736,10 +9752,10 @@
         <v>564</v>
       </c>
       <c r="B87" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C87" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E87" t="s">
         <v>13</v>
@@ -9747,36 +9763,30 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>52</v>
+        <v>564</v>
       </c>
       <c r="B88" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C88" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="E88" t="s">
         <v>13</v>
       </c>
-      <c r="I88" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="B89" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C89" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E89" t="s">
         <v>13</v>
-      </c>
-      <c r="G89" t="s">
-        <v>575</v>
       </c>
       <c r="I89" t="s">
         <v>563</v>
@@ -9787,10 +9797,10 @@
         <v>244</v>
       </c>
       <c r="B90" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C90" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E90" t="s">
         <v>13</v>
@@ -9807,10 +9817,10 @@
         <v>244</v>
       </c>
       <c r="B91" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C91" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E91" t="s">
         <v>13</v>
@@ -9827,10 +9837,10 @@
         <v>244</v>
       </c>
       <c r="B92" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C92" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E92" t="s">
         <v>13</v>
@@ -9844,13 +9854,13 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B93" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C93" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E93" t="s">
         <v>13</v>
@@ -9858,78 +9868,84 @@
       <c r="G93" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="10" t="s">
+      <c r="I93" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" t="s">
+        <v>574</v>
+      </c>
+      <c r="C94" t="s">
+        <v>335</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B95" s="10" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="16" t="s">
+    <row r="97" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B97" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C97" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="G96" s="16" t="s">
+      <c r="G97" s="16" t="s">
         <v>2599</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="17" t="s">
-        <v>2599</v>
-      </c>
-      <c r="I97" s="17" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I98" s="17" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B99" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C99" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G98" s="17" t="s">
+      <c r="G99" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="I98" s="17" t="s">
+      <c r="I99" s="17" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>564</v>
-      </c>
-      <c r="B99" t="s">
-        <v>349</v>
-      </c>
-      <c r="C99" t="s">
-        <v>348</v>
-      </c>
-      <c r="E99" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
@@ -9937,10 +9953,10 @@
         <v>564</v>
       </c>
       <c r="B100" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C100" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E100" t="s">
         <v>13</v>
@@ -9948,36 +9964,30 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>52</v>
+        <v>564</v>
       </c>
       <c r="B101" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C101" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E101" t="s">
         <v>13</v>
       </c>
-      <c r="I101" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="B102" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C102" t="s">
-        <v>92</v>
+        <v>353</v>
       </c>
       <c r="E102" t="s">
         <v>13</v>
-      </c>
-      <c r="G102" t="s">
-        <v>356</v>
       </c>
       <c r="I102" t="s">
         <v>563</v>
@@ -9988,10 +9998,10 @@
         <v>244</v>
       </c>
       <c r="B103" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C103" t="s">
-        <v>358</v>
+        <v>92</v>
       </c>
       <c r="E103" t="s">
         <v>13</v>
@@ -10008,10 +10018,10 @@
         <v>244</v>
       </c>
       <c r="B104" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C104" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E104" t="s">
         <v>13</v>
@@ -10028,10 +10038,10 @@
         <v>244</v>
       </c>
       <c r="B105" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C105" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E105" t="s">
         <v>13</v>
@@ -10048,10 +10058,10 @@
         <v>244</v>
       </c>
       <c r="B106" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C106" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E106" t="s">
         <v>13</v>
@@ -10068,10 +10078,10 @@
         <v>244</v>
       </c>
       <c r="B107" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C107" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E107" t="s">
         <v>13</v>
@@ -10088,10 +10098,10 @@
         <v>244</v>
       </c>
       <c r="B108" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C108" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E108" t="s">
         <v>13</v>
@@ -10108,10 +10118,10 @@
         <v>244</v>
       </c>
       <c r="B109" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C109" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E109" t="s">
         <v>13</v>
@@ -10128,10 +10138,10 @@
         <v>244</v>
       </c>
       <c r="B110" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C110" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E110" t="s">
         <v>13</v>
@@ -10145,13 +10155,13 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B111" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C111" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E111" t="s">
         <v>13</v>
@@ -10159,81 +10169,84 @@
       <c r="G111" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="10" t="s">
+      <c r="I111" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>61</v>
+      </c>
+      <c r="B112" t="s">
+        <v>373</v>
+      </c>
+      <c r="C112" t="s">
+        <v>374</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B113" s="10" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="16" t="s">
+    <row r="115" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B115" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="C114" s="16" t="s">
+      <c r="C115" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="G114" s="16" t="s">
+      <c r="G115" s="16" t="s">
         <v>2599</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>376</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="E115" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="17" t="s">
-        <v>2599</v>
-      </c>
-      <c r="I115" s="17" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="116" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="E116" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="17" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I116" s="17" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B116" s="17" t="s">
+      <c r="B117" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="C116" s="17" t="s">
+      <c r="C117" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G116" s="17" t="s">
+      <c r="G117" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="I116" s="17" t="s">
+      <c r="I117" s="17" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>244</v>
-      </c>
-      <c r="B117" t="s">
-        <v>380</v>
-      </c>
-      <c r="C117" t="s">
-        <v>381</v>
-      </c>
-      <c r="E117" t="s">
-        <v>13</v>
-      </c>
-      <c r="I117" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.35">
@@ -10241,10 +10254,10 @@
         <v>244</v>
       </c>
       <c r="B118" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C118" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E118" t="s">
         <v>13</v>
@@ -10255,13 +10268,13 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>52</v>
+        <v>244</v>
       </c>
       <c r="B119" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C119" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E119" t="s">
         <v>13</v>
@@ -10272,19 +10285,16 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="B120" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C120" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E120" t="s">
         <v>13</v>
-      </c>
-      <c r="G120" t="s">
-        <v>411</v>
       </c>
       <c r="I120" t="s">
         <v>563</v>
@@ -10295,10 +10305,10 @@
         <v>244</v>
       </c>
       <c r="B121" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C121" t="s">
-        <v>130</v>
+        <v>386</v>
       </c>
       <c r="E121" t="s">
         <v>13</v>
@@ -10315,10 +10325,10 @@
         <v>244</v>
       </c>
       <c r="B122" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C122" t="s">
-        <v>389</v>
+        <v>130</v>
       </c>
       <c r="E122" t="s">
         <v>13</v>
@@ -10335,10 +10345,10 @@
         <v>244</v>
       </c>
       <c r="B123" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C123" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E123" t="s">
         <v>13</v>
@@ -10355,10 +10365,10 @@
         <v>244</v>
       </c>
       <c r="B124" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C124" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E124" t="s">
         <v>13</v>
@@ -10375,10 +10385,10 @@
         <v>244</v>
       </c>
       <c r="B125" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C125" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E125" t="s">
         <v>13</v>
@@ -10395,10 +10405,10 @@
         <v>244</v>
       </c>
       <c r="B126" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C126" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E126" t="s">
         <v>13</v>
@@ -10415,10 +10425,10 @@
         <v>244</v>
       </c>
       <c r="B127" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C127" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E127" t="s">
         <v>13</v>
@@ -10435,10 +10445,10 @@
         <v>244</v>
       </c>
       <c r="B128" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C128" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E128" t="s">
         <v>13</v>
@@ -10455,10 +10465,10 @@
         <v>244</v>
       </c>
       <c r="B129" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C129" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E129" t="s">
         <v>13</v>
@@ -10475,10 +10485,10 @@
         <v>244</v>
       </c>
       <c r="B130" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C130" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E130" t="s">
         <v>13</v>
@@ -10495,10 +10505,10 @@
         <v>244</v>
       </c>
       <c r="B131" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C131" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E131" t="s">
         <v>13</v>
@@ -10512,13 +10522,13 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B132" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C132" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E132" t="s">
         <v>13</v>
@@ -10526,98 +10536,98 @@
       <c r="G132" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="10" t="s">
+      <c r="I132" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>61</v>
+      </c>
+      <c r="B133" t="s">
+        <v>407</v>
+      </c>
+      <c r="C133" t="s">
+        <v>410</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B134" s="10" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="16" t="s">
+    <row r="136" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B136" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="C135" s="16" t="s">
+      <c r="C136" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="G135" s="16" t="s">
+      <c r="G136" s="16" t="s">
         <v>2599</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="C136" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="E136" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" s="17" t="s">
-        <v>2599</v>
-      </c>
-      <c r="I136" s="17" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="137" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B137" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" s="17" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I137" s="17" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B137" s="17" t="s">
+      <c r="B138" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="C137" s="17" t="s">
+      <c r="C138" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G137" s="17" t="s">
+      <c r="G138" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="I137" s="17" t="s">
+      <c r="I138" s="17" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>52</v>
-      </c>
-      <c r="B138" t="s">
-        <v>417</v>
-      </c>
-      <c r="C138" t="s">
-        <v>418</v>
-      </c>
-      <c r="E138" t="s">
-        <v>13</v>
-      </c>
-      <c r="I138" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="B139" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C139" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E139" t="s">
         <v>13</v>
-      </c>
-      <c r="G139" t="s">
-        <v>435</v>
       </c>
       <c r="I139" t="s">
         <v>563</v>
@@ -10628,10 +10638,10 @@
         <v>244</v>
       </c>
       <c r="B140" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C140" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E140" t="s">
         <v>13</v>
@@ -10648,10 +10658,10 @@
         <v>244</v>
       </c>
       <c r="B141" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C141" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E141" t="s">
         <v>13</v>
@@ -10668,10 +10678,10 @@
         <v>244</v>
       </c>
       <c r="B142" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C142" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E142" t="s">
         <v>13</v>
@@ -10683,15 +10693,15 @@
         <v>563</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>244</v>
       </c>
       <c r="B143" t="s">
-        <v>428</v>
-      </c>
-      <c r="C143" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
+      </c>
+      <c r="C143" t="s">
+        <v>425</v>
       </c>
       <c r="E143" t="s">
         <v>13</v>
@@ -10703,15 +10713,15 @@
         <v>563</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>244</v>
       </c>
       <c r="B144" t="s">
-        <v>430</v>
-      </c>
-      <c r="C144" t="s">
-        <v>429</v>
+        <v>428</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>427</v>
       </c>
       <c r="E144" t="s">
         <v>13</v>
@@ -10728,10 +10738,10 @@
         <v>244</v>
       </c>
       <c r="B145" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C145" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E145" t="s">
         <v>13</v>
@@ -10745,13 +10755,13 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B146" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C146" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E146" t="s">
         <v>13</v>
@@ -10759,109 +10769,112 @@
       <c r="G146" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="10" t="s">
+      <c r="I146" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>61</v>
+      </c>
+      <c r="B147" t="s">
+        <v>434</v>
+      </c>
+      <c r="C147" t="s">
+        <v>433</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B148" s="10" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="16" t="s">
+    <row r="150" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B150" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="C149" s="16" t="s">
+      <c r="C150" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="G149" s="16" t="s">
+      <c r="G150" s="16" t="s">
         <v>2599</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B150" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="C150" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="E150" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" s="17" t="s">
-        <v>2599</v>
-      </c>
-      <c r="I150" s="17" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="151" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="E151" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" s="17" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I151" s="17" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B151" s="17" t="s">
+      <c r="B152" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C152" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G151" s="17" t="s">
+      <c r="G152" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="I151" s="17" t="s">
+      <c r="I152" s="17" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>52</v>
-      </c>
-      <c r="B152" t="s">
-        <v>440</v>
-      </c>
-      <c r="C152" t="s">
-        <v>447</v>
-      </c>
-      <c r="E152" t="s">
-        <v>13</v>
-      </c>
-      <c r="I152" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B153" t="s">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="C153" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E153" t="s">
         <v>13</v>
       </c>
-      <c r="G153" t="s">
-        <v>448</v>
+      <c r="I153" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>564</v>
+        <v>51</v>
       </c>
       <c r="B154" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="C154" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E154" t="s">
         <v>13</v>
@@ -10872,13 +10885,13 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>446</v>
+        <v>564</v>
       </c>
       <c r="B155" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C155" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E155" t="s">
         <v>13</v>
@@ -10886,19 +10899,16 @@
       <c r="G155" t="s">
         <v>448</v>
       </c>
-      <c r="I155" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B156" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C156" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="E156" t="s">
         <v>13</v>
@@ -10912,39 +10922,39 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>61</v>
+        <v>449</v>
       </c>
       <c r="B157" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="C157" t="s">
-        <v>580</v>
+        <v>476</v>
       </c>
       <c r="E157" t="s">
         <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>477</v>
+        <v>448</v>
+      </c>
+      <c r="I157" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="B158" t="s">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="C158" t="s">
-        <v>452</v>
+        <v>580</v>
       </c>
       <c r="E158" t="s">
         <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>448</v>
-      </c>
-      <c r="I158" t="s">
-        <v>563</v>
+        <v>477</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.35">
@@ -10952,10 +10962,10 @@
         <v>244</v>
       </c>
       <c r="B159" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C159" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E159" t="s">
         <v>13</v>
@@ -10972,10 +10982,10 @@
         <v>244</v>
       </c>
       <c r="B160" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C160" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E160" t="s">
         <v>13</v>
@@ -10989,13 +10999,13 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B161" t="s">
-        <v>334</v>
+        <v>456</v>
       </c>
       <c r="C161" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E161" t="s">
         <v>13</v>
@@ -11003,98 +11013,98 @@
       <c r="G161" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="10" t="s">
+      <c r="I161" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>61</v>
+      </c>
+      <c r="B162" t="s">
+        <v>334</v>
+      </c>
+      <c r="C162" t="s">
+        <v>457</v>
+      </c>
+      <c r="E162" t="s">
+        <v>13</v>
+      </c>
+      <c r="G162" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B163" s="10" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="16" t="s">
+    <row r="165" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="B165" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="C164" s="16" t="s">
+      <c r="C165" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="G164" s="16" t="s">
+      <c r="G165" s="16" t="s">
         <v>2599</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B165" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="C165" s="17" t="s">
-        <v>482</v>
-      </c>
-      <c r="E165" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" s="17" t="s">
-        <v>2599</v>
-      </c>
-      <c r="I165" s="17" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="166" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B166" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="E166" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G166" s="17" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I166" s="17" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B167" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C167" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G166" s="17" t="s">
+      <c r="G167" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="I166" s="17" t="s">
+      <c r="I167" s="17" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>52</v>
-      </c>
-      <c r="B167" t="s">
-        <v>484</v>
-      </c>
-      <c r="C167" t="s">
-        <v>485</v>
-      </c>
-      <c r="E167" t="s">
-        <v>13</v>
-      </c>
-      <c r="I167" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="B168" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C168" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E168" t="s">
         <v>13</v>
-      </c>
-      <c r="G168" t="s">
-        <v>486</v>
       </c>
       <c r="I168" t="s">
         <v>563</v>
@@ -11105,10 +11115,10 @@
         <v>244</v>
       </c>
       <c r="B169" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C169" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E169" t="s">
         <v>13</v>
@@ -11125,10 +11135,10 @@
         <v>244</v>
       </c>
       <c r="B170" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C170" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E170" t="s">
         <v>13</v>
@@ -11145,10 +11155,10 @@
         <v>244</v>
       </c>
       <c r="B171" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C171" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E171" t="s">
         <v>13</v>
@@ -11165,10 +11175,10 @@
         <v>244</v>
       </c>
       <c r="B172" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C172" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E172" t="s">
         <v>13</v>
@@ -11185,10 +11195,10 @@
         <v>244</v>
       </c>
       <c r="B173" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C173" t="s">
-        <v>127</v>
+        <v>495</v>
       </c>
       <c r="E173" t="s">
         <v>13</v>
@@ -11205,10 +11215,10 @@
         <v>244</v>
       </c>
       <c r="B174" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C174" t="s">
-        <v>498</v>
+        <v>127</v>
       </c>
       <c r="E174" t="s">
         <v>13</v>
@@ -11225,10 +11235,10 @@
         <v>244</v>
       </c>
       <c r="B175" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C175" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E175" t="s">
         <v>13</v>
@@ -11245,10 +11255,10 @@
         <v>244</v>
       </c>
       <c r="B176" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C176" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E176" t="s">
         <v>13</v>
@@ -11262,13 +11272,13 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B177" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C177" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E177" t="s">
         <v>13</v>
@@ -11276,92 +11286,95 @@
       <c r="G177" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="10" t="s">
+      <c r="I177" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>61</v>
+      </c>
+      <c r="B178" t="s">
+        <v>505</v>
+      </c>
+      <c r="C178" t="s">
+        <v>504</v>
+      </c>
+      <c r="E178" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A179" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B179" s="10" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="16" t="s">
+    <row r="181" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B180" s="16" t="s">
+      <c r="B181" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="C180" s="16" t="s">
+      <c r="C181" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="G180" s="16" t="s">
+      <c r="G181" s="16" t="s">
         <v>2599</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B181" s="17" t="s">
-        <v>507</v>
-      </c>
-      <c r="C181" s="17" t="s">
-        <v>525</v>
-      </c>
-      <c r="E181" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G181" s="17" t="s">
-        <v>2599</v>
-      </c>
-      <c r="I181" s="17" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E182" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G182" s="17" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I182" s="17" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B182" s="17" t="s">
+      <c r="B183" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="C183" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G182" s="17" t="s">
+      <c r="G183" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="I182" s="17" t="s">
+      <c r="I183" s="17" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>244</v>
-      </c>
-      <c r="B183" t="s">
-        <v>509</v>
-      </c>
-      <c r="C183" t="s">
-        <v>510</v>
-      </c>
-      <c r="E183" t="s">
-        <v>13</v>
-      </c>
-      <c r="I183" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>52</v>
+        <v>244</v>
       </c>
       <c r="B184" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C184" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E184" t="s">
         <v>13</v>
@@ -11372,19 +11385,16 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>244</v>
+        <v>52</v>
       </c>
       <c r="B185" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C185" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E185" t="s">
         <v>13</v>
-      </c>
-      <c r="G185" t="s">
-        <v>524</v>
       </c>
       <c r="I185" t="s">
         <v>563</v>
@@ -11395,10 +11405,10 @@
         <v>244</v>
       </c>
       <c r="B186" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C186" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E186" t="s">
         <v>13</v>
@@ -11415,10 +11425,10 @@
         <v>244</v>
       </c>
       <c r="B187" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C187" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E187" t="s">
         <v>13</v>
@@ -11435,10 +11445,10 @@
         <v>244</v>
       </c>
       <c r="B188" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C188" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E188" t="s">
         <v>13</v>
@@ -11455,10 +11465,10 @@
         <v>244</v>
       </c>
       <c r="B189" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C189" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E189" t="s">
         <v>13</v>
@@ -11472,13 +11482,13 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B190" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="C190" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E190" t="s">
         <v>13</v>
@@ -11486,115 +11496,118 @@
       <c r="G190" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="10" t="s">
+      <c r="I190" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>61</v>
+      </c>
+      <c r="B191" t="s">
+        <v>505</v>
+      </c>
+      <c r="C191" t="s">
+        <v>523</v>
+      </c>
+      <c r="E191" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A192" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B192" s="10" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="16" t="s">
+    <row r="194" spans="1:9" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B193" s="16" t="s">
+      <c r="B194" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="C193" s="16" t="s">
+      <c r="C194" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="G193" s="16" t="s">
+      <c r="G194" s="16" t="s">
         <v>2599</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B194" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="C194" s="17" t="s">
-        <v>529</v>
-      </c>
-      <c r="E194" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G194" s="17" t="s">
-        <v>2599</v>
-      </c>
-      <c r="I194" s="17" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="195" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B195" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>529</v>
+      </c>
+      <c r="E195" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G195" s="17" t="s">
+        <v>2599</v>
+      </c>
+      <c r="I195" s="17" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B195" s="17" t="s">
+      <c r="B196" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="C195" s="17" t="s">
+      <c r="C196" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G195" s="17" t="s">
+      <c r="G196" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="I195" s="17" t="s">
+      <c r="I196" s="17" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>244</v>
-      </c>
-      <c r="B196" t="s">
-        <v>531</v>
-      </c>
-      <c r="C196" t="s">
-        <v>532</v>
-      </c>
-      <c r="E196" t="s">
-        <v>13</v>
-      </c>
-      <c r="I196" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>564</v>
+        <v>244</v>
       </c>
       <c r="B197" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C197" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E197" t="s">
         <v>13</v>
       </c>
-      <c r="G197" t="s">
-        <v>535</v>
+      <c r="I197" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>244</v>
+        <v>564</v>
       </c>
       <c r="B198" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C198" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E198" t="s">
         <v>13</v>
       </c>
-      <c r="I198" t="s">
-        <v>563</v>
+      <c r="G198" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
@@ -11602,10 +11615,10 @@
         <v>244</v>
       </c>
       <c r="B199" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C199" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E199" t="s">
         <v>13</v>
@@ -11619,141 +11632,138 @@
         <v>244</v>
       </c>
       <c r="B200" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C200" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E200" t="s">
         <v>13</v>
       </c>
-      <c r="G200" t="s">
-        <v>543</v>
-      </c>
       <c r="I200" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B201" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C201" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="E201" t="s">
         <v>13</v>
       </c>
       <c r="G201" t="s">
-        <v>545</v>
+        <v>543</v>
+      </c>
+      <c r="I201" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="B202" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C202" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="E202" t="s">
         <v>13</v>
       </c>
       <c r="G202" t="s">
-        <v>543</v>
-      </c>
-      <c r="I202" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B203" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C203" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="E203" t="s">
         <v>13</v>
       </c>
       <c r="G203" t="s">
-        <v>549</v>
+        <v>543</v>
+      </c>
+      <c r="I203" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="B204" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C204" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="E204" t="s">
         <v>13</v>
       </c>
       <c r="G204" t="s">
-        <v>543</v>
-      </c>
-      <c r="I204" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B205" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C205" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="E205" t="s">
         <v>13</v>
       </c>
       <c r="G205" t="s">
-        <v>553</v>
+        <v>543</v>
+      </c>
+      <c r="I205" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="B206" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C206" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E206" t="s">
         <v>13</v>
       </c>
       <c r="G206" t="s">
-        <v>543</v>
-      </c>
-      <c r="I206" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>576</v>
+        <v>244</v>
       </c>
       <c r="B207" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C207" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E207" t="s">
         <v>13</v>
@@ -11761,16 +11771,19 @@
       <c r="G207" t="s">
         <v>543</v>
       </c>
+      <c r="I207" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>61</v>
+        <v>576</v>
       </c>
       <c r="B208" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C208" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E208" t="s">
         <v>13</v>
@@ -11779,71 +11792,74 @@
         <v>543</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="10" t="s">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>61</v>
+      </c>
+      <c r="B209" t="s">
+        <v>558</v>
+      </c>
+      <c r="C209" t="s">
+        <v>559</v>
+      </c>
+      <c r="E209" t="s">
+        <v>13</v>
+      </c>
+      <c r="G209" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="B210" s="10" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="9" t="s">
+    <row r="212" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B211" s="12" t="s">
+      <c r="B212" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C211" s="12" t="s">
+      <c r="C212" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G211" s="9" t="s">
+      <c r="G212" s="9" t="s">
         <v>2598</v>
       </c>
-      <c r="I211" s="9" t="s">
+      <c r="I212" s="9" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
-        <v>83</v>
-      </c>
-      <c r="B212" t="s">
-        <v>235</v>
-      </c>
-      <c r="C212" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="B213" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="C213" t="s">
-        <v>135</v>
-      </c>
-      <c r="E213" t="s">
-        <v>13</v>
-      </c>
-      <c r="I213" t="s">
-        <v>563</v>
+        <v>253</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B214" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C214" t="s">
-        <v>138</v>
-      </c>
-      <c r="G214" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="E214" t="s">
+        <v>13</v>
+      </c>
+      <c r="I214" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.35">
@@ -11851,10 +11867,10 @@
         <v>61</v>
       </c>
       <c r="B215" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C215" t="s">
-        <v>251</v>
+        <v>138</v>
       </c>
       <c r="G215" t="s">
         <v>140</v>
@@ -11865,10 +11881,10 @@
         <v>61</v>
       </c>
       <c r="B216" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C216" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="G216" t="s">
         <v>140</v>
@@ -11876,58 +11892,55 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B217" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C217" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G217" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
-        <v>83</v>
-      </c>
-      <c r="B219" t="s">
-        <v>236</v>
-      </c>
-      <c r="C219" t="s">
-        <v>254</v>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>51</v>
+      </c>
+      <c r="B218" t="s">
+        <v>143</v>
+      </c>
+      <c r="C218" t="s">
+        <v>144</v>
+      </c>
+      <c r="G218" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="B220" t="s">
-        <v>145</v>
+        <v>236</v>
       </c>
       <c r="C220" t="s">
-        <v>246</v>
-      </c>
-      <c r="E220" t="s">
-        <v>13</v>
-      </c>
-      <c r="I220" t="s">
-        <v>563</v>
+        <v>254</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>148</v>
+        <v>244</v>
       </c>
       <c r="B221" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C221" t="s">
-        <v>146</v>
-      </c>
-      <c r="G221" t="s">
-        <v>157</v>
+        <v>246</v>
+      </c>
+      <c r="E221" t="s">
+        <v>13</v>
       </c>
       <c r="I221" t="s">
         <v>563</v>
@@ -11935,27 +11948,30 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="B222" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C222" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G222" t="s">
         <v>157</v>
       </c>
+      <c r="I222" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B223" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C223" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G223" t="s">
         <v>157</v>
@@ -11963,13 +11979,13 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B224" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C224" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G224" t="s">
         <v>157</v>
@@ -11980,10 +11996,10 @@
         <v>61</v>
       </c>
       <c r="B225" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C225" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="G225" t="s">
         <v>157</v>
@@ -11991,13 +12007,13 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="B226" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C226" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="G226" t="s">
         <v>157</v>
@@ -12005,58 +12021,58 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
+        <v>167</v>
+      </c>
+      <c r="B227" t="s">
+        <v>165</v>
+      </c>
+      <c r="C227" t="s">
+        <v>166</v>
+      </c>
+      <c r="G227" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
         <v>51</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B228" t="s">
         <v>175</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C228" t="s">
         <v>176</v>
       </c>
-      <c r="G227" t="s">
+      <c r="G228" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
-        <v>83</v>
-      </c>
-      <c r="B229" t="s">
-        <v>237</v>
-      </c>
-      <c r="C229" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="B230" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="C230" t="s">
-        <v>234</v>
-      </c>
-      <c r="E230" t="s">
-        <v>13</v>
-      </c>
-      <c r="I230" t="s">
-        <v>563</v>
+        <v>252</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B231" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C231" t="s">
-        <v>180</v>
-      </c>
-      <c r="G231" t="s">
-        <v>188</v>
+        <v>234</v>
+      </c>
+      <c r="E231" t="s">
+        <v>13</v>
+      </c>
+      <c r="I231" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.35">
@@ -12064,10 +12080,10 @@
         <v>61</v>
       </c>
       <c r="B232" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C232" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G232" t="s">
         <v>188</v>
@@ -12075,13 +12091,13 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B233" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C233" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G233" t="s">
         <v>188</v>
@@ -12089,13 +12105,13 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B234" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C234" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G234" t="s">
         <v>188</v>
@@ -12106,10 +12122,10 @@
         <v>61</v>
       </c>
       <c r="B235" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C235" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="G235" t="s">
         <v>188</v>
@@ -12117,61 +12133,58 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="B236" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C236" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="G236" t="s">
         <v>188</v>
       </c>
-      <c r="I236" t="s">
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>244</v>
+      </c>
+      <c r="B237" t="s">
+        <v>189</v>
+      </c>
+      <c r="C237" t="s">
+        <v>187</v>
+      </c>
+      <c r="G237" t="s">
+        <v>188</v>
+      </c>
+      <c r="I237" t="s">
         <v>563</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
-        <v>83</v>
-      </c>
-      <c r="B238" t="s">
-        <v>238</v>
-      </c>
-      <c r="C238" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="B239" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="C239" t="s">
-        <v>191</v>
-      </c>
-      <c r="E239" t="s">
-        <v>13</v>
-      </c>
-      <c r="I239" t="s">
-        <v>563</v>
+        <v>255</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B240" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C240" t="s">
-        <v>193</v>
-      </c>
-      <c r="G240" t="s">
-        <v>209</v>
+        <v>191</v>
+      </c>
+      <c r="E240" t="s">
+        <v>13</v>
       </c>
       <c r="I240" t="s">
         <v>563</v>
@@ -12179,16 +12192,19 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>61</v>
+        <v>245</v>
       </c>
       <c r="B241" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C241" t="s">
-        <v>260</v>
+        <v>193</v>
       </c>
       <c r="G241" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="I241" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.35">
@@ -12196,13 +12212,13 @@
         <v>61</v>
       </c>
       <c r="B242" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C242" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="G242" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.35">
@@ -12210,10 +12226,10 @@
         <v>61</v>
       </c>
       <c r="B243" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C243" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="G243" t="s">
         <v>209</v>
@@ -12221,58 +12237,58 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B244" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C244" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="G244" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
-        <v>83</v>
-      </c>
-      <c r="B246" t="s">
-        <v>239</v>
-      </c>
-      <c r="C246" t="s">
-        <v>256</v>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>51</v>
+      </c>
+      <c r="B245" t="s">
+        <v>214</v>
+      </c>
+      <c r="C245" t="s">
+        <v>215</v>
+      </c>
+      <c r="G245" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="B247" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="C247" t="s">
-        <v>233</v>
-      </c>
-      <c r="E247" t="s">
-        <v>13</v>
-      </c>
-      <c r="I247" t="s">
-        <v>563</v>
+        <v>256</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B248" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C248" t="s">
-        <v>217</v>
-      </c>
-      <c r="G248" t="s">
-        <v>225</v>
+        <v>233</v>
+      </c>
+      <c r="E248" t="s">
+        <v>13</v>
+      </c>
+      <c r="I248" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.35">
@@ -12280,10 +12296,10 @@
         <v>61</v>
       </c>
       <c r="B249" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C249" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="G249" t="s">
         <v>225</v>
@@ -12291,47 +12307,47 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>244</v>
+        <v>61</v>
       </c>
       <c r="B250" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C250" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G250" t="s">
         <v>225</v>
       </c>
-      <c r="I250" t="s">
-        <v>563</v>
-      </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>61</v>
+        <v>244</v>
       </c>
       <c r="B251" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C251" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="G251" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="I251" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B252" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C252" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="G252" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.35">
@@ -12339,141 +12355,138 @@
         <v>51</v>
       </c>
       <c r="B253" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C253" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G253" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
-        <v>83</v>
-      </c>
-      <c r="B255" t="s">
-        <v>240</v>
-      </c>
-      <c r="C255" t="s">
-        <v>257</v>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>51</v>
+      </c>
+      <c r="B254" t="s">
+        <v>221</v>
+      </c>
+      <c r="C254" t="s">
+        <v>249</v>
+      </c>
+      <c r="G254" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="B256" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C256" t="s">
-        <v>230</v>
-      </c>
-      <c r="I256" t="s">
-        <v>563</v>
+        <v>257</v>
       </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
+        <v>244</v>
+      </c>
+      <c r="B257" t="s">
+        <v>227</v>
+      </c>
+      <c r="C257" t="s">
+        <v>230</v>
+      </c>
+      <c r="I257" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
         <v>51</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B258" t="s">
         <v>228</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C258" t="s">
         <v>231</v>
       </c>
-      <c r="G257" t="s">
+      <c r="G258" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>83</v>
-      </c>
-      <c r="B259" t="s">
-        <v>241</v>
-      </c>
-      <c r="C259" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
+        <v>83</v>
+      </c>
+      <c r="B260" t="s">
+        <v>241</v>
+      </c>
+      <c r="C260" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
         <v>244</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B261" t="s">
         <v>242</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C261" t="s">
         <v>232</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E261" t="s">
         <v>13</v>
       </c>
-      <c r="I260" t="s">
+      <c r="I261" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="261" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A261" s="10" t="s">
+    <row r="262" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B261" s="10" t="s">
+      <c r="B262" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="263" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="10" t="s">
+    <row r="264" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B263" s="10" t="s">
+      <c r="B264" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="265" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A265" s="9" t="s">
+    <row r="266" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B265" s="12" t="s">
+      <c r="B266" s="12" t="s">
         <v>2549</v>
       </c>
-      <c r="C265" s="12" t="s">
+      <c r="C266" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I265" s="9" t="s">
+      <c r="I266" s="9" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="266" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="14" t="s">
-        <v>2552</v>
-      </c>
-      <c r="B266" s="14" t="s">
-        <v>2551</v>
-      </c>
-      <c r="C266" s="14" t="s">
-        <v>2550</v>
-      </c>
-      <c r="I266" s="14" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="267" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A267" s="14" t="s">
-        <v>61</v>
+        <v>2552</v>
       </c>
       <c r="B267" s="14" t="s">
-        <v>2558</v>
+        <v>2551</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>2532</v>
-      </c>
-      <c r="G267" s="14" t="s">
-        <v>2561</v>
-      </c>
-      <c r="O267" s="14" t="s">
-        <v>2609</v>
+        <v>2550</v>
+      </c>
+      <c r="I267" s="14" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="268" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -12481,49 +12494,52 @@
         <v>61</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>2560</v>
+        <v>2532</v>
       </c>
       <c r="G268" s="14" t="s">
         <v>2561</v>
       </c>
-    </row>
-    <row r="269" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="10" t="s">
+      <c r="O268" s="14" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B269" s="14" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C269" s="14" t="s">
+        <v>2560</v>
+      </c>
+      <c r="G269" s="14" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B269" s="10" t="s">
+      <c r="B270" s="10" t="s">
         <v>2542</v>
       </c>
     </row>
-    <row r="271" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A271" s="9" t="s">
+    <row r="272" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B271" s="12" t="s">
+      <c r="B272" s="12" t="s">
         <v>2542</v>
       </c>
-      <c r="C271" s="12" t="s">
+      <c r="C272" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I271" s="9" t="s">
+      <c r="I272" s="9" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="272" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B272" s="14" t="s">
-        <v>2543</v>
-      </c>
-      <c r="C272" s="14" t="s">
-        <v>2546</v>
-      </c>
-      <c r="H272" s="14" t="s">
-        <v>2588</v>
       </c>
     </row>
     <row r="273" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -12531,13 +12547,13 @@
         <v>43</v>
       </c>
       <c r="B273" s="14" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="C273" s="14" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="H273" s="14" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="274" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -12545,20 +12561,34 @@
         <v>43</v>
       </c>
       <c r="B274" s="14" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C274" s="14" t="s">
+        <v>2547</v>
+      </c>
+      <c r="H274" s="14" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B275" s="14" t="s">
         <v>2544</v>
       </c>
-      <c r="C274" s="14" t="s">
+      <c r="C275" s="14" t="s">
         <v>2548</v>
       </c>
-      <c r="H274" s="14" t="s">
+      <c r="H275" s="14" t="s">
         <v>2590</v>
       </c>
     </row>
-    <row r="275" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="10" t="s">
+    <row r="276" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B275" s="10" t="s">
+      <c r="B276" s="10" t="s">
         <v>2542</v>
       </c>
     </row>

--- a/config/forms/app/case_investigation.xlsx
+++ b/config/forms/app/case_investigation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB84A3E-6AFA-4171-B418-10B1E50399A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3568FE-FFAD-4170-93ED-6A7762AE5227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -8821,9 +8821,9 @@
   <dimension ref="A1:M329"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B6" sqref="A6:B6"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
